--- a/public/static/资金及物资捐赠-资金援助情况-红十字会系统接收捐赠资金统计表.xlsx
+++ b/public/static/资金及物资捐赠-资金援助情况-红十字会系统接收捐赠资金统计表.xlsx
@@ -493,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -565,6 +565,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,7 +707,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,34 +719,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,18 +872,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1194,21 +1220,22 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.3333333333333" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="22.5" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -1225,32 +1252,32 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="11" customHeight="1" spans="2:2">
-      <c r="B11" s="1"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="18"/>
+      <c r="B12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/public/static/资金及物资捐赠-资金援助情况-红十字会系统接收捐赠资金统计表.xlsx
+++ b/public/static/资金及物资捐赠-资金援助情况-红十字会系统接收捐赠资金统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="红十字会系统接收捐赠资金" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>红十字会系统接收捐赠资金</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>雅安市县区列表</t>
+  </si>
+  <si>
+    <t>当前时间</t>
   </si>
   <si>
     <t>雨城区</t>
@@ -102,7 +105,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +125,14 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -493,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -520,6 +531,21 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -686,167 +712,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,19 +889,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -878,16 +913,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,65 +1254,65 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="14" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.3333333333333" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="22.5" style="15"/>
+    <col min="1" max="1" width="31.3333333333333" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="22.5" style="18"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="11" customHeight="1" spans="2:2">
-      <c r="B11" s="14"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="21"/>
+      <c r="B12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1285,9 +1320,12 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A6:A13 A15:A1048576">
       <formula1>雅安市县区列表!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>雅安市县区列表!$B$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,25 +1355,25 @@
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E2"/>
@@ -1344,17 +1382,17 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" s="7" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="10" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1372,61 +1410,76 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.1" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="B2" s="5">
+        <f ca="1">NOW()</f>
+        <v>45604.8103240741</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
